--- a/biology/Botanique/Maniguette/Maniguette.xlsx
+++ b/biology/Botanique/Maniguette/Maniguette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aframomum melegueta · Graine de paradis
 La maniguette (Aframomum melegueta) est une espèce de plantes à fleurs du genre Aframomum et de la famille des Zingiberaceae.
@@ -515,11 +527,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Noms communs
-L'espèce et l'épice qu'elle produit sont connues sous les noms de maniguette[1], malaguette[1], méléguette[2], graines de paradis[3], poivre de Guinée[3],[4] et graines de Guinée[2]. Elle a donné son nom à la Côte de la Malaguette, ou Côte du Poivre, d'où l'épice était commercialisée.
-Il est cependant difficile de relier ces différents noms avec une espèce précise et il est probable que certaines sources historiques relatives à l'utilisation et au commerce de la « graine de paradis » concernent également d'autres représentants du genre Aframomum, comme la cardamome de Madagascar ou la cardamome d'Éthiopie[5].
-Synonymes
-Selon World Checklist of Selected Plant Families (WCSP)  (26 sept 2011)[6] :
+          <t>Noms communs</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce et l'épice qu'elle produit sont connues sous les noms de maniguette, malaguette, méléguette, graines de paradis, poivre de Guinée, et graines de Guinée. Elle a donné son nom à la Côte de la Malaguette, ou Côte du Poivre, d'où l'épice était commercialisée.
+Il est cependant difficile de relier ces différents noms avec une espèce précise et il est probable que certaines sources historiques relatives à l'utilisation et au commerce de la « graine de paradis » concernent également d'autres représentants du genre Aframomum, comme la cardamome de Madagascar ou la cardamome d'Éthiopie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Maniguette</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maniguette</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie et dénominations</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (26 sept 2011) :
 Aframomum grana-paradisi (L.) K.Schum. in H.G.A.Engler (ed.), Pflanzenr., IV, 46: 213 (1904).
 Alpinia grana-paradisi (L.) Moon, Cat. Pl. Ceylon: 1 (1824).
 Amomum elatum Salisb., Prodr. Stirp. Chap. Allerton: 5 (1796), nom. superfl.
@@ -528,40 +580,7 @@
 Amomum melegueta var. violacea Ridl., J. Bot. 25: 130 (1887).
 Cardamomum grana-paradisi (L.) Kuntze, Revis. Gen. Pl. 2: 686 (1891).
 Torymenes officinalis Salisb., Trans. Hort. Soc. London 1: 283 (1812), nom. inval.
-Zerumbet autranii Heckel[7]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Maniguette</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Maniguette</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes herbacées dont les tiges atteignent 2 m de haut à partir de rhizome rampant. Les feuilles sont sessiles, glabres, lancéolées de 18 à 22 cm de long.
-Les inflorescences sont des épis solitaires formés de quelques fleurs de 7 à 13 cm pourvues de bractées. Les corolles sont blanches, roses ou mauves avec un labelle arrondi jaune à la base et rouge à l'apex.
-Les fruits sont des baies ovoïdes ou fusiformes orangées puis rouges. Ils contiennent une pulpe incolore à saveur acidulée. Les graines dures et anguleuses luisantes, de couleur brun-rouge mesurent 3,5 mm de diamètre[8].
-</t>
+Zerumbet autranii Heckel</t>
         </is>
       </c>
     </row>
@@ -586,12 +605,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Aire de répartition</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maniguette est largement cultivée sur une zone qui s'étend de la Guinée au centre de la République démocratique du Congo. Son origine et son aire de répartition naturelle restent débattues. L'espèce a également été introduite et s'est naturalisée en Afrique de l'Est (Burundi et Ouganda), dans les Caraïbes (Martinique et Trinité-et-Tobago) et en Amérique du Sud (Guyane française et Guyana)[5].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plantes herbacées dont les tiges atteignent 2 m de haut à partir de rhizome rampant. Les feuilles sont sessiles, glabres, lancéolées de 18 à 22 cm de long.
+Les inflorescences sont des épis solitaires formés de quelques fleurs de 7 à 13 cm pourvues de bractées. Les corolles sont blanches, roses ou mauves avec un labelle arrondi jaune à la base et rouge à l'apex.
+Les fruits sont des baies ovoïdes ou fusiformes orangées puis rouges. Ils contiennent une pulpe incolore à saveur acidulée. Les graines dures et anguleuses luisantes, de couleur brun-rouge mesurent 3,5 mm de diamètre.
 </t>
         </is>
       </c>
@@ -617,12 +640,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Aire de répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maniguette est largement cultivée sur une zone qui s'étend de la Guinée au centre de la République démocratique du Congo. Son origine et son aire de répartition naturelle restent débattues. L'espèce a également été introduite et s'est naturalisée en Afrique de l'Est (Burundi et Ouganda), dans les Caraïbes (Martinique et Trinité-et-Tobago) et en Amérique du Sud (Guyane française et Guyana).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Maniguette</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maniguette</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les graines sont utilisées comme épice. La maniguette fut l'une des principales marchandises exportées de la côte d'Afrique de l'Ouest à partir du XIVe siècle[9], et a donné son nom à la Côte du Poivre dans le golfe de Guinée.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les graines sont utilisées comme épice. La maniguette fut l'une des principales marchandises exportées de la côte d'Afrique de l'Ouest à partir du XIVe siècle, et a donné son nom à la Côte du Poivre dans le golfe de Guinée.
 </t>
         </is>
       </c>
